--- a/data/trans_orig/IP3107-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3107-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD950518-EBB8-4641-9050-B48A14B49E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE2982E-F22E-4ED0-B87D-752D915E824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3504C6AC-DF92-4C1A-96E7-1FD46007AD89}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E2D41C3-42C8-4925-B87E-74DAEAC6D7D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="508">
   <si>
     <t>Menores según la frecuencia se lava los dientes por la mañana en 2007 (Tasa respuesta: 85,84%)</t>
   </si>
@@ -112,28 +112,28 @@
     <t>13,08%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>2,6%</t>
@@ -142,1375 +142,1408 @@
     <t>0,84%</t>
   </si>
   <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se lava los dientes por la mañana en 2012 (Tasa respuesta: 83,71%)</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se lava los dientes por la mañana en 2016 (Tasa respuesta: 90,08%)</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se lava los dientes por la mañana en 2012 (Tasa respuesta: 83,71%)</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se lava los dientes por la mañana en 2015 (Tasa respuesta: 90,08%)</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>7,66%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>5,9%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>79,22%</t>
+    <t>79,23%</t>
   </si>
   <si>
     <t>84,11%</t>
@@ -1519,16 +1552,16 @@
     <t>81,49%</t>
   </si>
   <si>
-    <t>78,75%</t>
+    <t>78,84%</t>
   </si>
   <si>
     <t>81,61%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF81108D-05C8-4332-8916-A91CA49BBC57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC5BEE8-2836-4F35-81D8-69D1C8C56E95}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2827,7 +2860,7 @@
         <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2836,13 +2869,13 @@
         <v>12492</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -2851,13 +2884,13 @@
         <v>27170</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2905,13 @@
         <v>280383</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>381</v>
@@ -2887,13 +2920,13 @@
         <v>252870</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
@@ -2902,13 +2935,13 @@
         <v>533253</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,7 +2997,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2976,13 +3009,13 @@
         <v>14914</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -2991,13 +3024,13 @@
         <v>19665</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -3006,13 +3039,13 @@
         <v>34579</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3060,13 @@
         <v>3414</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3042,13 +3075,13 @@
         <v>4322</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -3057,13 +3090,13 @@
         <v>7736</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3111,13 @@
         <v>5423</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -3093,13 +3126,13 @@
         <v>8558</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -3108,13 +3141,13 @@
         <v>13981</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3162,13 @@
         <v>5262</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3144,13 +3177,13 @@
         <v>2487</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -3159,13 +3192,13 @@
         <v>7749</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3213,13 @@
         <v>96895</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>156</v>
@@ -3195,13 +3228,13 @@
         <v>108587</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>300</v>
@@ -3210,13 +3243,13 @@
         <v>205482</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3317,13 @@
         <v>103176</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -3299,13 +3332,13 @@
         <v>92578</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>293</v>
@@ -3314,13 +3347,13 @@
         <v>195753</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3368,13 @@
         <v>20562</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -3353,10 +3386,10 @@
         <v>38</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>57</v>
@@ -3365,10 +3398,10 @@
         <v>37646</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>175</v>
@@ -3401,13 +3434,13 @@
         <v>37247</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>118</v>
@@ -3416,13 +3449,13 @@
         <v>78586</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3470,13 @@
         <v>21877</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -3455,10 +3488,10 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="M31" s="7">
         <v>61</v>
@@ -3467,13 +3500,13 @@
         <v>40706</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3521,13 @@
         <v>434150</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="H32" s="7">
         <v>626</v>
@@ -3503,13 +3536,13 @@
         <v>421715</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>1277</v>
@@ -3518,13 +3551,13 @@
         <v>855865</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3613,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0938763F-8F82-4040-9B33-75844B67B99F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8E8D86-6650-4471-82DE-59994DADB177}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3650,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4020,13 +4053,13 @@
         <v>7648</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4035,13 +4068,13 @@
         <v>5681</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4050,13 +4083,13 @@
         <v>13328</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4104,13 @@
         <v>3649</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4086,13 +4119,13 @@
         <v>5233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -4101,13 +4134,13 @@
         <v>8882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4155,13 @@
         <v>12504</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4137,13 +4170,13 @@
         <v>5357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -4152,13 +4185,13 @@
         <v>17861</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4206,13 @@
         <v>3826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4188,13 +4221,13 @@
         <v>4227</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4203,13 +4236,13 @@
         <v>8053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4257,13 @@
         <v>47769</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>89</v>
@@ -4239,13 +4272,13 @@
         <v>61689</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>156</v>
@@ -4254,13 +4287,13 @@
         <v>109458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4361,13 @@
         <v>37313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4343,13 +4376,13 @@
         <v>25745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4358,13 +4391,13 @@
         <v>63058</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4412,13 @@
         <v>12830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -4394,13 +4427,13 @@
         <v>15384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -4409,13 +4442,13 @@
         <v>28214</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4463,13 @@
         <v>35867</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -4445,13 +4478,13 @@
         <v>24921</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -4460,13 +4493,13 @@
         <v>60788</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4514,13 @@
         <v>28058</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4496,13 +4529,13 @@
         <v>20258</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -4511,13 +4544,13 @@
         <v>48316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4565,13 @@
         <v>301556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>416</v>
@@ -4547,13 +4580,13 @@
         <v>290443</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>849</v>
@@ -4562,13 +4595,13 @@
         <v>592000</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4657,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4636,13 +4669,13 @@
         <v>6188</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -4651,13 +4684,13 @@
         <v>15307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -4666,13 +4699,13 @@
         <v>21496</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4720,13 @@
         <v>2580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -4702,13 +4735,13 @@
         <v>3199</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -4717,13 +4750,13 @@
         <v>5780</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4771,13 @@
         <v>12875</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>295</v>
+        <v>48</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -4753,13 +4786,13 @@
         <v>9014</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -4768,13 +4801,13 @@
         <v>21890</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4822,13 @@
         <v>6073</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4804,13 +4837,13 @@
         <v>2086</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -4819,13 +4852,13 @@
         <v>8159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4873,13 @@
         <v>113210</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>151</v>
@@ -4855,13 +4888,13 @@
         <v>108062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>311</v>
@@ -4870,13 +4903,13 @@
         <v>221272</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4977,13 @@
         <v>51149</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -4959,13 +4992,13 @@
         <v>46733</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -4974,13 +5007,13 @@
         <v>97882</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>58</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +5028,13 @@
         <v>19059</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -5010,13 +5043,13 @@
         <v>23816</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>62</v>
@@ -5025,13 +5058,13 @@
         <v>42875</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5079,13 @@
         <v>61246</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>326</v>
+        <v>143</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -5061,13 +5094,13 @@
         <v>39293</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M30" s="7">
         <v>141</v>
@@ -5076,13 +5109,13 @@
         <v>100539</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>119</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5130,13 @@
         <v>37957</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -5112,13 +5145,13 @@
         <v>26571</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>136</v>
+        <v>349</v>
       </c>
       <c r="M31" s="7">
         <v>92</v>
@@ -5127,13 +5160,13 @@
         <v>64528</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>337</v>
+        <v>132</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5181,13 @@
         <v>463177</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H32" s="7">
         <v>656</v>
@@ -5163,28 +5196,28 @@
         <v>460194</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="M32" s="7">
         <v>1317</v>
       </c>
       <c r="N32" s="7">
-        <v>923370</v>
+        <v>923371</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>278</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,7 +5259,7 @@
         <v>1757</v>
       </c>
       <c r="N33" s="7">
-        <v>1229194</v>
+        <v>1229195</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>21</v>
@@ -5240,7 +5273,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5260,7 +5293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F78758E-1268-4D73-9634-6968E4B371BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018FC970-63E1-4672-ABD1-DC1721EB5463}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5277,7 +5310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5656,13 +5689,13 @@
         <v>3406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5671,13 +5704,13 @@
         <v>4322</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5686,13 +5719,13 @@
         <v>7727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5740,13 @@
         <v>713</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>88</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5722,13 +5755,13 @@
         <v>2485</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -5737,13 +5770,13 @@
         <v>3198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5791,13 @@
         <v>5644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>166</v>
+        <v>373</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5773,13 +5806,13 @@
         <v>1314</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -5788,13 +5821,13 @@
         <v>6958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5842,13 @@
         <v>6307</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5824,13 +5857,13 @@
         <v>3117</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5839,13 +5872,13 @@
         <v>9425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5893,13 @@
         <v>49390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -5875,13 +5908,13 @@
         <v>44917</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -5890,13 +5923,13 @@
         <v>94306</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5997,13 @@
         <v>21772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -5979,13 +6012,13 @@
         <v>21423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -5994,13 +6027,13 @@
         <v>43195</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6048,13 @@
         <v>8875</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -6030,13 +6063,13 @@
         <v>4003</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -6045,13 +6078,13 @@
         <v>12877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6099,13 @@
         <v>23130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -6081,13 +6114,13 @@
         <v>16356</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M18" s="7">
         <v>58</v>
@@ -6096,13 +6129,13 @@
         <v>39486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6150,13 @@
         <v>26480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -6132,13 +6165,13 @@
         <v>39986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -6147,13 +6180,13 @@
         <v>66467</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6201,13 @@
         <v>369548</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>516</v>
@@ -6183,13 +6216,13 @@
         <v>346051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>1039</v>
@@ -6198,13 +6231,13 @@
         <v>715599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,7 +6293,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6272,13 +6305,13 @@
         <v>10310</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6287,13 +6320,13 @@
         <v>11052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -6302,13 +6335,13 @@
         <v>21361</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6356,13 @@
         <v>1980</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6338,13 +6371,13 @@
         <v>2613</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -6353,13 +6386,13 @@
         <v>4593</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6407,13 @@
         <v>8026</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>449</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -6389,13 +6422,13 @@
         <v>3680</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>289</v>
+        <v>451</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6404,13 +6437,13 @@
         <v>11706</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>366</v>
+        <v>454</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6458,13 @@
         <v>7555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -6440,13 +6473,13 @@
         <v>7131</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>50</v>
+        <v>460</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -6455,13 +6488,13 @@
         <v>14686</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6509,13 @@
         <v>136044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="H26" s="7">
         <v>187</v>
@@ -6491,13 +6524,13 @@
         <v>126222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="M26" s="7">
         <v>382</v>
@@ -6506,13 +6539,13 @@
         <v>262267</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6613,13 @@
         <v>35487</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>462</v>
+        <v>333</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -6595,13 +6628,13 @@
         <v>36797</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>287</v>
+        <v>476</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -6610,13 +6643,13 @@
         <v>72284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6664,13 @@
         <v>11568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -6646,13 +6679,13 @@
         <v>9101</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>397</v>
+        <v>484</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -6661,13 +6694,13 @@
         <v>20668</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6715,13 @@
         <v>36800</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>475</v>
+        <v>294</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -6697,13 +6730,13 @@
         <v>21350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -6712,13 +6745,13 @@
         <v>58150</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6766,13 @@
         <v>40343</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>481</v>
+        <v>170</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="H31" s="7">
         <v>76</v>
@@ -6748,13 +6781,13 @@
         <v>50235</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>485</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>133</v>
@@ -6763,13 +6796,13 @@
         <v>90578</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6817,13 @@
         <v>554982</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="H32" s="7">
         <v>769</v>
@@ -6799,13 +6832,13 @@
         <v>517189</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="M32" s="7">
         <v>1558</v>
@@ -6814,13 +6847,13 @@
         <v>1072172</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6909,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
